--- a/河北/导出模板/合同分析结果.xlsx
+++ b/河北/导出模板/合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\河北\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C672E7D2-CF76-40D5-A814-33DB41912675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{134782BC-AC69-4EC7-98D3-DAE4A7A2DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" xr2:uid="{EF0C7595-7200-4508-8F4E-BB8540C3D327}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" xr2:uid="{6BC51C11-1A15-4DD2-8A79-95EE4ABEC335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>数据日期</t>
   </si>
@@ -420,8 +420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC6B6F0-0E65-45BB-B208-912802840757}">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC589B6-30E8-40A9-8200-A39E869926B0}">
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,76 +521,76 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="F2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="G2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="H2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="I2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="J2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="K2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="L2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="M2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="N2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="O2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="P2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="Q2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="R2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="S2">
-        <v>23.25337096774194</v>
+        <v>38.702810483870977</v>
       </c>
       <c r="T2">
-        <v>17.83210685483871</v>
+        <v>26.433967741935483</v>
       </c>
       <c r="U2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
       <c r="V2">
-        <v>87.568774193548407</v>
+        <v>100.41195161290324</v>
       </c>
       <c r="W2">
-        <v>87.568774193548407</v>
+        <v>100.41195161290324</v>
       </c>
       <c r="X2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
       <c r="Y2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
       <c r="Z2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
       <c r="AA2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
       <c r="AB2">
-        <v>61.465255376344089</v>
+        <v>68.072784946236567</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -601,76 +601,76 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="F3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="G3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="H3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="I3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="J3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="K3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="L3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="M3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="N3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="O3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="P3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="Q3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="R3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="S3">
-        <v>892.04999999999961</v>
+        <v>829.97945435528788</v>
       </c>
       <c r="T3">
-        <v>892.05</v>
+        <v>838.5457076740521</v>
       </c>
       <c r="U3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
       <c r="V3">
-        <v>867.76120321281098</v>
+        <v>848.61406884638609</v>
       </c>
       <c r="W3">
-        <v>867.76120321281098</v>
+        <v>848.61406884638609</v>
       </c>
       <c r="X3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
       <c r="Y3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
       <c r="Z3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
       <c r="AA3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
       <c r="AB3">
-        <v>775.93628246353887</v>
+        <v>771.81054766766886</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -681,76 +681,76 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>432.58274999999992</v>
+        <v>435.45326743768021</v>
       </c>
       <c r="F4">
-        <v>495.26824999999997</v>
+        <v>456.49965905253816</v>
       </c>
       <c r="G4">
-        <v>547.95275000000004</v>
+        <v>534.29615779395556</v>
       </c>
       <c r="H4">
-        <v>349.82049999999998</v>
+        <v>378.31266648187693</v>
       </c>
       <c r="I4">
-        <v>361.56425000000002</v>
+        <v>424.74407685714971</v>
       </c>
       <c r="J4">
-        <v>562.01</v>
+        <v>544.27018192909634</v>
       </c>
       <c r="K4">
-        <v>510.43624999999997</v>
+        <v>513.02870512786046</v>
       </c>
       <c r="L4">
-        <v>560.08074999999997</v>
+        <v>517.0266492902507</v>
       </c>
       <c r="M4">
-        <v>391.99025</v>
+        <v>380.55072752488934</v>
       </c>
       <c r="N4">
-        <v>476.79774999999995</v>
+        <v>424.71744408278295</v>
       </c>
       <c r="O4">
-        <v>510.89825000000002</v>
+        <v>479.24389046942753</v>
       </c>
       <c r="P4">
-        <v>430.78750000000002</v>
+        <v>421.48786956628771</v>
       </c>
       <c r="Q4">
-        <v>446.94450000000006</v>
+        <v>389.8902105074734</v>
       </c>
       <c r="R4">
-        <v>353.51825000000002</v>
+        <v>377.08681411374329</v>
       </c>
       <c r="S4">
-        <v>480.75624999999997</v>
+        <v>442.30331169235018</v>
       </c>
       <c r="T4">
-        <v>474.87275</v>
+        <v>495.23003500879548</v>
       </c>
       <c r="U4">
-        <v>420.31699999999995</v>
+        <v>424.10455045479068</v>
       </c>
       <c r="V4">
-        <v>529.53625</v>
+        <v>521.27541816984262</v>
       </c>
       <c r="W4">
-        <v>410.45800000000003</v>
+        <v>408.70205801929512</v>
       </c>
       <c r="X4">
-        <v>510.01850000000002</v>
+        <v>513.57850428922018</v>
       </c>
       <c r="Y4">
-        <v>365.40674999999999</v>
+        <v>369.43871177820176</v>
       </c>
       <c r="Z4">
-        <v>516.10050000000001</v>
+        <v>502.32855770583512</v>
       </c>
       <c r="AA4">
-        <v>479.42275000000001</v>
+        <v>471.04615369715549</v>
       </c>
       <c r="AB4">
-        <v>413.80499999999995</v>
+        <v>422.56068622483889</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -761,76 +761,76 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="F5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="G5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="H5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="I5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="J5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="K5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="L5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="M5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="N5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="O5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="P5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="Q5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="R5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="S5">
-        <v>20743.16957177419</v>
+        <v>32122.53752741935</v>
       </c>
       <c r="T5">
-        <v>15907.13091985887</v>
+        <v>22166.090186794354</v>
       </c>
       <c r="U5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
       <c r="V5">
-        <v>75988.784858064522</v>
+        <v>85210.994819032261</v>
       </c>
       <c r="W5">
-        <v>75988.784858064522</v>
+        <v>85210.994819032261</v>
       </c>
       <c r="X5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
       <c r="Y5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
       <c r="Z5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
       <c r="AA5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
       <c r="AB5">
-        <v>47693.121757392481</v>
+        <v>52539.293430618287</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -841,76 +841,476 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>7713.8618215599781</v>
+        <v>11510.757624568043</v>
       </c>
       <c r="F6">
-        <v>11516.656345794356</v>
+        <v>17667.8197902621</v>
       </c>
       <c r="G6">
-        <v>12741.748568544359</v>
+        <v>20678.762937359883</v>
       </c>
       <c r="H6">
-        <v>8134.5058586209689</v>
+        <v>14641.76343449597</v>
       </c>
       <c r="I6">
-        <v>8407.5876339233891</v>
+        <v>16438.789510748993</v>
       </c>
       <c r="J6">
-        <v>13068.627017580648</v>
+        <v>21064.785703223792</v>
       </c>
       <c r="K6">
-        <v>9102.1537525831645</v>
+        <v>13561.384242036795</v>
       </c>
       <c r="L6">
-        <v>9987.4197813382052</v>
+        <v>13667.065769059476</v>
       </c>
       <c r="M6">
-        <v>6990.0120240549395</v>
+        <v>10059.465655563004</v>
       </c>
       <c r="N6">
-        <v>8502.308426146672</v>
+        <v>11226.967216321571</v>
       </c>
       <c r="O6">
-        <v>9110.3921859501006</v>
+        <v>12668.317541188509</v>
       </c>
       <c r="P6">
-        <v>7681.8487317288309</v>
+        <v>11141.596747732359</v>
       </c>
       <c r="Q6">
-        <v>10392.966260491939</v>
+        <v>15089.846926787302</v>
       </c>
       <c r="R6">
-        <v>8220.4910111169374</v>
+        <v>14594.31950261089</v>
       </c>
       <c r="S6">
-        <v>11179.203426310485</v>
+        <v>17118.381248817543</v>
       </c>
       <c r="T6">
-        <v>8467.981620451108</v>
+        <v>13090.89477026008</v>
       </c>
       <c r="U6">
-        <v>25834.891744018816</v>
+        <v>28869.977857829301</v>
       </c>
       <c r="V6">
-        <v>46370.840303548401</v>
+        <v>52342.28206626614</v>
       </c>
       <c r="W6">
-        <v>35943.303917935496</v>
+        <v>41038.571273927431</v>
       </c>
       <c r="X6">
-        <v>31348.41734915995</v>
+        <v>34960.71907548992</v>
       </c>
       <c r="Y6">
-        <v>22459.819204989919</v>
+        <v>25148.721977692203</v>
       </c>
       <c r="Z6">
-        <v>31722.249032358872</v>
+        <v>34194.903881062499</v>
       </c>
       <c r="AA6">
-        <v>29467.841761979169</v>
+        <v>32065.423520378361</v>
       </c>
       <c r="AB6">
-        <v>25434.630001008063</v>
+        <v>28764.882720117606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="F7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="G7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="H7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="I7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="J7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="K7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="L7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="M7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="N7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="O7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="P7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="Q7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="R7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="S7">
+        <v>38.702810483870977</v>
+      </c>
+      <c r="T7">
+        <v>26.433967741935483</v>
+      </c>
+      <c r="U7">
+        <v>68.072784946236567</v>
+      </c>
+      <c r="V7">
+        <v>100.41195161290324</v>
+      </c>
+      <c r="W7">
+        <v>100.41195161290324</v>
+      </c>
+      <c r="X7">
+        <v>68.072784946236567</v>
+      </c>
+      <c r="Y7">
+        <v>68.072784946236567</v>
+      </c>
+      <c r="Z7">
+        <v>68.072784946236567</v>
+      </c>
+      <c r="AA7">
+        <v>68.072784946236567</v>
+      </c>
+      <c r="AB7">
+        <v>68.072784946236567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="F8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="G8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="H8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="I8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="J8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="K8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="L8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="M8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="N8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="O8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="P8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="Q8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="R8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="S8">
+        <v>829.97945435528788</v>
+      </c>
+      <c r="T8">
+        <v>838.5457076740521</v>
+      </c>
+      <c r="U8">
+        <v>771.81054766766886</v>
+      </c>
+      <c r="V8">
+        <v>848.61406884638609</v>
+      </c>
+      <c r="W8">
+        <v>848.61406884638609</v>
+      </c>
+      <c r="X8">
+        <v>771.81054766766886</v>
+      </c>
+      <c r="Y8">
+        <v>771.81054766766886</v>
+      </c>
+      <c r="Z8">
+        <v>771.81054766766886</v>
+      </c>
+      <c r="AA8">
+        <v>771.81054766766886</v>
+      </c>
+      <c r="AB8">
+        <v>771.81054766766886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="F10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="G10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="H10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="I10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="J10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="K10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="L10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="M10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="N10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="O10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="P10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="Q10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="R10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="S10">
+        <v>32122.53752741935</v>
+      </c>
+      <c r="T10">
+        <v>22166.090186794354</v>
+      </c>
+      <c r="U10">
+        <v>52539.293430618287</v>
+      </c>
+      <c r="V10">
+        <v>85210.994819032261</v>
+      </c>
+      <c r="W10">
+        <v>85210.994819032261</v>
+      </c>
+      <c r="X10">
+        <v>52539.293430618287</v>
+      </c>
+      <c r="Y10">
+        <v>52539.293430618287</v>
+      </c>
+      <c r="Z10">
+        <v>52539.293430618287</v>
+      </c>
+      <c r="AA10">
+        <v>52539.293430618287</v>
+      </c>
+      <c r="AB10">
+        <v>52539.293430618287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
